--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/106.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/106.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02075478732413631</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.588207236248377</v>
+        <v>-1.707499005467981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04546539348691175</v>
+        <v>0.1373213990302507</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1066891381628656</v>
+        <v>-0.08222603239969033</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.003794384834906493</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.696122310743621</v>
+        <v>-1.769234218895874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01626735176491959</v>
+        <v>0.03417484159991478</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08895101390641579</v>
+        <v>0.003929945396741087</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.01436257579506022</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.805536124604182</v>
+        <v>-2.02681371302185</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03681022840400498</v>
+        <v>0.05201370917463727</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1439831465489465</v>
+        <v>-0.1403753677163111</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.002010343042079199</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.999312977205539</v>
+        <v>-2.155013965668134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08223816470453824</v>
+        <v>-0.07656396590314639</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1591807871272151</v>
+        <v>-0.08119377839941787</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.03121529792318235</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.104914605500738</v>
+        <v>-2.260772549133105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1399217446801591</v>
+        <v>-0.1477442304311273</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1652677276182135</v>
+        <v>-0.01710204735279872</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.07927311800032366</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.999279396099448</v>
+        <v>-2.056118338254478</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2507846562709475</v>
+        <v>-0.02242830278843365</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1855492556490262</v>
+        <v>-0.02140480907670666</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1328535504438326</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.756861771373513</v>
+        <v>-1.747781732296152</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3359229805480156</v>
+        <v>-0.1568067489313976</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1779964268747555</v>
+        <v>-0.02935331088361361</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1795504644088645</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.332841905052264</v>
+        <v>-1.386761481049522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3829847106622757</v>
+        <v>0.06849765212099648</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1629345707689414</v>
+        <v>0.01713024018664663</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2032728075172755</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.833115625121216</v>
+        <v>-1.005153091672988</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3777007966212771</v>
+        <v>0.06833850687908742</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1141675044844999</v>
+        <v>0.04816794250318375</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.187691092950085</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2279957737479239</v>
+        <v>-0.5086038763877576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2930939298492998</v>
+        <v>-0.06745472586396702</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08462051126878059</v>
+        <v>0.08508233838562838</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1192039860113563</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4899186328404287</v>
+        <v>0.3059846944439327</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07983492554690252</v>
+        <v>-0.3662506475722504</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01909838501319156</v>
+        <v>0.2465665773363123</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.005400262925742141</v>
       </c>
       <c r="E13" t="n">
-        <v>1.17632228153079</v>
+        <v>0.7545844703756305</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2253151254530155</v>
+        <v>-0.5706865812612865</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1389522727477957</v>
+        <v>0.4517777965616208</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1821323333688952</v>
       </c>
       <c r="E14" t="n">
-        <v>1.94421851441522</v>
+        <v>1.518304965720062</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6543429567260821</v>
+        <v>-1.090976178504692</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2518256705597655</v>
+        <v>0.4512331986237119</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4014232669342154</v>
       </c>
       <c r="E15" t="n">
-        <v>2.736154439116462</v>
+        <v>2.343089052370567</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.056300036345611</v>
+        <v>-1.459936171269684</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4114133070403589</v>
+        <v>0.707384035692734</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6495923859239686</v>
       </c>
       <c r="E16" t="n">
-        <v>3.388178335410196</v>
+        <v>3.069143227065736</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.494825480450038</v>
+        <v>-1.848076815804943</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5574516972373197</v>
+        <v>0.9127690006408606</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9165482982042674</v>
       </c>
       <c r="E17" t="n">
-        <v>4.02172386306539</v>
+        <v>3.845812888928437</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.864712603752757</v>
+        <v>-1.989837995119587</v>
       </c>
       <c r="G17" t="n">
-        <v>0.694894784323101</v>
+        <v>1.034348665218919</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.189254577621862</v>
       </c>
       <c r="E18" t="n">
-        <v>4.579625759178694</v>
+        <v>4.400142047363288</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.222221439340752</v>
+        <v>-2.451039446123918</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9028421336707725</v>
+        <v>1.254049401698405</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.456819340311599</v>
       </c>
       <c r="E19" t="n">
-        <v>5.019132355600212</v>
+        <v>4.864367257963891</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.603602061215104</v>
+        <v>-2.642223983339866</v>
       </c>
       <c r="G19" t="n">
-        <v>1.073786024202454</v>
+        <v>1.387966472644642</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.709849230577343</v>
       </c>
       <c r="E20" t="n">
-        <v>5.415666816610107</v>
+        <v>5.076865577210924</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.940479687254514</v>
+        <v>-2.873331345529577</v>
       </c>
       <c r="G20" t="n">
-        <v>1.233788314340865</v>
+        <v>1.601866438058948</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.93589450173635</v>
       </c>
       <c r="E21" t="n">
-        <v>5.732380448490021</v>
+        <v>5.529455664575075</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.229190326774845</v>
+        <v>-3.203373756431398</v>
       </c>
       <c r="G21" t="n">
-        <v>1.354397046938469</v>
+        <v>1.797469080797987</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.127895957055267</v>
       </c>
       <c r="E22" t="n">
-        <v>5.992669061848678</v>
+        <v>5.917407962906608</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.533165769085628</v>
+        <v>-3.379248959390123</v>
       </c>
       <c r="G22" t="n">
-        <v>1.453708058033988</v>
+        <v>1.865929275732605</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.280219810062306</v>
       </c>
       <c r="E23" t="n">
-        <v>6.104591968353467</v>
+        <v>5.930640378754513</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.757219638948158</v>
+        <v>-3.557609894223621</v>
       </c>
       <c r="G23" t="n">
-        <v>1.558129237447687</v>
+        <v>1.989006949651935</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.390128857545358</v>
       </c>
       <c r="E24" t="n">
-        <v>6.199337409068714</v>
+        <v>6.126681035920824</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.963028017842648</v>
+        <v>-3.71149385283708</v>
       </c>
       <c r="G24" t="n">
-        <v>1.674868842604383</v>
+        <v>2.115733283750447</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.455794110434056</v>
       </c>
       <c r="E25" t="n">
-        <v>6.213661940888619</v>
+        <v>6.012095001698219</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.05344952613667</v>
+        <v>-3.972237271176055</v>
       </c>
       <c r="G25" t="n">
-        <v>1.690605240928197</v>
+        <v>1.98133439693421</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.475502463178342</v>
       </c>
       <c r="E26" t="n">
-        <v>6.114937869125646</v>
+        <v>5.960293955480869</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.12312667115506</v>
+        <v>-3.923754184245295</v>
       </c>
       <c r="G26" t="n">
-        <v>1.697155016664014</v>
+        <v>1.884365302976509</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.452406823018715</v>
       </c>
       <c r="E27" t="n">
-        <v>5.958232367576506</v>
+        <v>5.76462561057774</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.169426256165866</v>
+        <v>-3.875842706142126</v>
       </c>
       <c r="G27" t="n">
-        <v>1.709793192938919</v>
+        <v>1.962105563576943</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.389464858136983</v>
       </c>
       <c r="E28" t="n">
-        <v>5.857972325221897</v>
+        <v>5.878813051671528</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.136527722557465</v>
+        <v>-3.854410660215677</v>
       </c>
       <c r="G28" t="n">
-        <v>1.67441330760002</v>
+        <v>1.875854682654602</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.294302063474528</v>
       </c>
       <c r="E29" t="n">
-        <v>5.586464702332696</v>
+        <v>5.654667928803315</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.113289597142562</v>
+        <v>-3.822172798368413</v>
       </c>
       <c r="G29" t="n">
-        <v>1.61928627183158</v>
+        <v>1.786829710359535</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.17456213569421</v>
       </c>
       <c r="E30" t="n">
-        <v>5.444047231401189</v>
+        <v>5.618336092109143</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.052712931874806</v>
+        <v>-3.930184236037657</v>
       </c>
       <c r="G30" t="n">
-        <v>1.583931207310226</v>
+        <v>1.820390375777162</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.038773062893912</v>
       </c>
       <c r="E31" t="n">
-        <v>5.184993818727441</v>
+        <v>5.344632556891217</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.921037034748114</v>
+        <v>-3.962110377617512</v>
       </c>
       <c r="G31" t="n">
-        <v>1.442953343796355</v>
+        <v>1.596562083344677</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.897103730906895</v>
       </c>
       <c r="E32" t="n">
-        <v>4.876409734617705</v>
+        <v>4.988443604777403</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.737000892985254</v>
+        <v>-3.75063482205816</v>
       </c>
       <c r="G32" t="n">
-        <v>1.325882307723022</v>
+        <v>1.56247142047005</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.7551493076396</v>
       </c>
       <c r="E33" t="n">
-        <v>4.57414035850115</v>
+        <v>4.726932931166655</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.527239433884629</v>
+        <v>-3.801778846634601</v>
       </c>
       <c r="G33" t="n">
-        <v>1.259280754008131</v>
+        <v>1.626008333242124</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.618548044202542</v>
       </c>
       <c r="E34" t="n">
-        <v>4.195567409105616</v>
+        <v>4.489435668507082</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.355605670629993</v>
+        <v>-3.777695353375062</v>
       </c>
       <c r="G34" t="n">
-        <v>1.168404440733792</v>
+        <v>1.477616345522618</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.488624135985257</v>
       </c>
       <c r="E35" t="n">
-        <v>3.842767228610801</v>
+        <v>4.050736478679836</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.204304537089352</v>
+        <v>-3.766602638004383</v>
       </c>
       <c r="G35" t="n">
-        <v>1.086443181102541</v>
+        <v>1.473974985583892</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.364575758789774</v>
       </c>
       <c r="E36" t="n">
-        <v>3.503342548676801</v>
+        <v>3.844906199063983</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.059894100513755</v>
+        <v>-3.631460586709874</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9601767621526661</v>
+        <v>1.330904873155748</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.247902123718987</v>
       </c>
       <c r="E37" t="n">
-        <v>3.121104878573086</v>
+        <v>3.51052306518789</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.922606508549655</v>
+        <v>-3.564682367175982</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8481764730990599</v>
+        <v>1.270929017677401</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.136837908426679</v>
       </c>
       <c r="E38" t="n">
-        <v>2.77432739645327</v>
+        <v>3.327633061176394</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.775527104063876</v>
+        <v>-3.412329268985842</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7556707461552665</v>
+        <v>1.131327979513256</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.032597466445638</v>
       </c>
       <c r="E39" t="n">
-        <v>2.424717421037091</v>
+        <v>2.901558907191236</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.662875633561725</v>
+        <v>-3.271148458787334</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6719019469874709</v>
+        <v>1.05655599668164</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9345855754238399</v>
       </c>
       <c r="E40" t="n">
-        <v>2.144405708159712</v>
+        <v>2.516639128744521</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.538123284482122</v>
+        <v>-3.110650482322059</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5712403914078614</v>
+        <v>0.9558856808134855</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8407090798132001</v>
       </c>
       <c r="E41" t="n">
-        <v>1.915219039233591</v>
+        <v>2.235845599997142</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.442041169739647</v>
+        <v>-3.054021057068074</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4954025734698819</v>
+        <v>0.8239396747899754</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7516350137273653</v>
       </c>
       <c r="E42" t="n">
-        <v>1.616096066752944</v>
+        <v>1.835141241639613</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.354704743061717</v>
+        <v>-2.817648031438501</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4405310461173511</v>
+        <v>0.744021022437906</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6651439249016572</v>
       </c>
       <c r="E43" t="n">
-        <v>1.424159604770178</v>
+        <v>1.731847219352095</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.298479021104868</v>
+        <v>-2.763908041356425</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3553649809265558</v>
+        <v>0.6106908908242146</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5822823207191377</v>
       </c>
       <c r="E44" t="n">
-        <v>1.210525368108417</v>
+        <v>1.461363090174622</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.257318075350015</v>
+        <v>-2.698459925633351</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3151231354449303</v>
+        <v>0.4966056530967906</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5030008744350021</v>
       </c>
       <c r="E45" t="n">
-        <v>1.049092230840915</v>
+        <v>1.291631039558395</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.160093472976405</v>
+        <v>-2.540344017628394</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2209471134851373</v>
+        <v>0.4352690327977162</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4270834609510973</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8527464236236041</v>
+        <v>1.002069922025109</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.118412020077144</v>
+        <v>-2.505517490515949</v>
       </c>
       <c r="G46" t="n">
-        <v>0.220041883668774</v>
+        <v>0.4826519734919762</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3556660838669836</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5826214662764948</v>
+        <v>0.6291239979719369</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.044808075718254</v>
+        <v>-2.459183594375006</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1751892063160587</v>
+        <v>0.3024265572463882</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.287656551633898</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4684281849903436</v>
+        <v>0.5370854864172343</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.967864271351411</v>
+        <v>-2.443342072588647</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1153257745407112</v>
+        <v>0.2627263896064898</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2241647737620538</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3087690061532956</v>
+        <v>0.3133710777358398</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.88098556974998</v>
+        <v>-2.394938558278842</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07838071764835745</v>
+        <v>0.1632985746636983</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1651957229786813</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2064429957500503</v>
+        <v>0.2264733955092268</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.813026901334589</v>
+        <v>-2.268888226446421</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03012904834000678</v>
+        <v>0.04815334202227466</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1106442225846412</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08920989433862728</v>
+        <v>0.07637023142717618</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.763313723887239</v>
+        <v>-2.241789733879156</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.01477181059970844</v>
+        <v>0.04624943931172972</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.06027690321263327</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01515041497537444</v>
+        <v>-0.02888317539834101</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.699585544815256</v>
+        <v>-2.106134475680692</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03409846717906689</v>
+        <v>-0.005142793440165569</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.01350949888088668</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.07039088257478442</v>
+        <v>-0.2956587824249057</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.634613404769819</v>
+        <v>-2.04639222789689</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09408016284977805</v>
+        <v>0.02488747569364455</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.02926673602756515</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.09881509880859496</v>
+        <v>-0.1084689367856833</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.61866091932855</v>
+        <v>-2.081193204167744</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1301667114646775</v>
+        <v>-0.13759397610313</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0681312872423666</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2235791282729251</v>
+        <v>-0.413289016917056</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.621408729835641</v>
+        <v>-2.13307674310223</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1558533375280342</v>
+        <v>-0.1733315732243022</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1034944104092045</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2869014139756353</v>
+        <v>-0.5357257297244776</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.578147504902016</v>
+        <v>-1.958863804895005</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1942321616456603</v>
+        <v>-0.1425727400931287</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1354219760358665</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3439352725508019</v>
+        <v>-0.5704617338552865</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.575218648431653</v>
+        <v>-1.954417958458188</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1887657415932981</v>
+        <v>-0.1835154086583904</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.164854135372432</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3607331258367065</v>
+        <v>-0.6226861940189997</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.583716128320742</v>
+        <v>-1.983702143017543</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2736719182239116</v>
+        <v>-0.2513726037314631</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1925292565752854</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4222099107525081</v>
+        <v>-0.838888655272669</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.594631447848375</v>
+        <v>-1.913493540494062</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3133282844210828</v>
+        <v>-0.2653219031920048</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2197706556933473</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4470876701735014</v>
+        <v>-0.7828125882451386</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.614712949290733</v>
+        <v>-1.912572980172744</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3209497354556262</v>
+        <v>-0.2442139879417377</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2471561063116439</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5226495390222994</v>
+        <v>-0.9536382148814563</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.630281442084093</v>
+        <v>-1.990572399309314</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3847348564031545</v>
+        <v>-0.3878578992696082</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2752046656634418</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6481567329649019</v>
+        <v>-1.093160410448692</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.675929845646353</v>
+        <v>-1.861573500357304</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4092023423106025</v>
+        <v>-0.4048017573646037</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3037330720910695</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7438585051796944</v>
+        <v>-1.13517475431268</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.753103607587514</v>
+        <v>-2.020087271467033</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4328726419604144</v>
+        <v>-0.5183015158075732</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3321674897319449</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8665478063068434</v>
+        <v>-1.227370951061201</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.753275893262242</v>
+        <v>-2.009699029300218</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4809753863634924</v>
+        <v>-0.5904497922198266</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3602406372631844</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9318820382788258</v>
+        <v>-1.391294930371793</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.743001534846517</v>
+        <v>-1.93148571311833</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5031140955659409</v>
+        <v>-0.633220440994906</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3874405241594546</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9987259599768079</v>
+        <v>-1.607168880805008</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.874816136541845</v>
+        <v>-2.114739999128508</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.515362439000574</v>
+        <v>-0.6617366402584438</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4138786748950959</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.032740700350708</v>
+        <v>-1.658175660860904</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.915796766357471</v>
+        <v>-2.063858783208431</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5179554844100279</v>
+        <v>-0.6844798093705287</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4395146687769873</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.097492373134418</v>
+        <v>-1.628370239133093</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.974845491298091</v>
+        <v>-2.171626392846493</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5572789596424719</v>
+        <v>-0.6892673070606182</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4636526838179774</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.101408222114235</v>
+        <v>-1.589719846070558</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.024098753596805</v>
+        <v>-2.238335990120111</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.560044290726653</v>
+        <v>-0.6814648100628021</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4862177915655303</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.129457205988682</v>
+        <v>-1.728478436486248</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.094007316237604</v>
+        <v>-2.346792742457082</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5698558138975593</v>
+        <v>-0.7102335976460672</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5060521190095902</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.100828583022144</v>
+        <v>-1.768619538649601</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.149804514079772</v>
+        <v>-2.524049150909808</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6269626748772713</v>
+        <v>-0.8811044857732031</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5226914263134476</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.072908083379697</v>
+        <v>-1.803585500354728</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.200882836492121</v>
+        <v>-2.713816711453529</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6163641857853651</v>
+        <v>-0.7578997876699635</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.534925800904594</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9795964098897221</v>
+        <v>-1.691848749981531</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.202436327660848</v>
+        <v>-2.752905118943337</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6620286498766256</v>
+        <v>-0.8640569642637531</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5413009263123519</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9070904216951962</v>
+        <v>-1.772617150322509</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.211054261517437</v>
+        <v>-2.852961484589264</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6664759563615335</v>
+        <v>-0.9000938712435617</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5412761433877724</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7351785192792423</v>
+        <v>-1.516866366430396</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.187340890448943</v>
+        <v>-2.823053859495091</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6501569988494469</v>
+        <v>-0.9654091225903623</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5344064174372342</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6017899857419144</v>
+        <v>-1.533427691925573</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.115095520838644</v>
+        <v>-2.68356305496181</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6231650897928178</v>
+        <v>-0.9236210861804643</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.521088204254472</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.429856182604597</v>
+        <v>-1.336562107587899</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.130379304254277</v>
+        <v>-2.698825667680124</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5977310520491883</v>
+        <v>-0.8047541909553145</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5022902142917687</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2726075431656392</v>
+        <v>-1.071196907017152</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.085559477983607</v>
+        <v>-2.667574798342314</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6077601223856401</v>
+        <v>-0.8693846797474789</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4785889241428638</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.06686048629096718</v>
+        <v>-0.8692751761406609</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.053462510777115</v>
+        <v>-2.588867985905699</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5217048879074814</v>
+        <v>-0.7992074682579523</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4510288776889345</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1170165102299835</v>
+        <v>-0.6240206779740903</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.018743297199352</v>
+        <v>-2.579669682932974</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4960518429502156</v>
+        <v>-0.7410975542397862</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4198308068923803</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2910104412235731</v>
+        <v>-0.5242774926436625</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.95412521881596</v>
+        <v>-2.482941496910273</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3991177901466961</v>
+        <v>-0.7094145106670674</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.38623206546633</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5069982754078788</v>
+        <v>-0.2374393647999214</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.891938120503932</v>
+        <v>-2.429992122869423</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3230551248027166</v>
+        <v>-0.6574397187268995</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3509916171355281</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7585674815676293</v>
+        <v>-0.003386355586802403</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.809157043869636</v>
+        <v>-2.348841189928627</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2794274277982737</v>
+        <v>-0.644478871823903</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3153882219735872</v>
       </c>
       <c r="E84" t="n">
-        <v>1.054341103727732</v>
+        <v>0.3529778022979201</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.782434513685779</v>
+        <v>-2.32211865974477</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2307056230046504</v>
+        <v>-0.5887999378770997</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2811261415940779</v>
       </c>
       <c r="E85" t="n">
-        <v>1.236702570330319</v>
+        <v>0.4391381602386242</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.728785046585339</v>
+        <v>-2.076892632515973</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2018623729687491</v>
+        <v>-0.5652727229401969</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2490083427905731</v>
       </c>
       <c r="E86" t="n">
-        <v>1.486798587966343</v>
+        <v>0.7489705854660865</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.664302022650356</v>
+        <v>-2.161868161430905</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1340022577994946</v>
+        <v>-0.453362956868227</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2207455102166692</v>
       </c>
       <c r="E87" t="n">
-        <v>1.704986714623648</v>
+        <v>1.00012659801611</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.590595874925103</v>
+        <v>-2.046590794437254</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0563583603730609</v>
+        <v>-0.4208914873264176</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.196574090898514</v>
       </c>
       <c r="E88" t="n">
-        <v>1.866076740589786</v>
+        <v>1.119787759402714</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.475790833488862</v>
+        <v>-1.816577738291679</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05872071818415118</v>
+        <v>-0.3629523989348877</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.175612480253553</v>
       </c>
       <c r="E89" t="n">
-        <v>2.023043590747199</v>
+        <v>1.399413249677366</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.388468277267794</v>
+        <v>-1.731324070215429</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01863992991264623</v>
+        <v>-0.2380803259118303</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1577727546700728</v>
       </c>
       <c r="E90" t="n">
-        <v>2.150146617253165</v>
+        <v>1.619762247509216</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.203030489337662</v>
+        <v>-1.515248633145669</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07042053545672324</v>
+        <v>-0.1833825442821177</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1427853377362833</v>
       </c>
       <c r="E91" t="n">
-        <v>2.18058569985243</v>
+        <v>1.64252001710221</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.022904356362256</v>
+        <v>-1.297282433798182</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09379444534408059</v>
+        <v>-0.1025907831716849</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1328533607256359</v>
       </c>
       <c r="E92" t="n">
-        <v>2.160717365431344</v>
+        <v>1.615411304198308</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8604185244212086</v>
+        <v>-1.10654175120187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1130159784608936</v>
+        <v>-0.1220225632135887</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1296249435721713</v>
       </c>
       <c r="E93" t="n">
-        <v>2.174303112917249</v>
+        <v>1.726421680646279</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6589172873948991</v>
+        <v>-0.837257781555124</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09388058818144421</v>
+        <v>-0.113526543372591</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.13447196563344</v>
       </c>
       <c r="E94" t="n">
-        <v>2.131316377024715</v>
+        <v>1.689924858517834</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5012612945385778</v>
+        <v>-0.7667286984756884</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08519038194435563</v>
+        <v>-0.1249338991068607</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1471697536994151</v>
       </c>
       <c r="E95" t="n">
-        <v>2.038639824454286</v>
+        <v>1.689410921589834</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3101570599676291</v>
+        <v>-0.5077964697934851</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05407529707900035</v>
+        <v>-0.1078279756737744</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1660117007935637</v>
       </c>
       <c r="E96" t="n">
-        <v>1.90351967388114</v>
+        <v>1.568225469996321</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1892986591464798</v>
+        <v>-0.2925722407607247</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01237924369882973</v>
+        <v>-0.06096189200369603</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1879818913826372</v>
       </c>
       <c r="E97" t="n">
-        <v>1.779234540190628</v>
+        <v>1.447759822111626</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.09193389215614227</v>
+        <v>-0.09263617528786934</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.00416456121925674</v>
+        <v>-0.1888051628917526</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2112028183826121</v>
       </c>
       <c r="E98" t="n">
-        <v>1.627986698405305</v>
+        <v>1.388090576732369</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.02729610312352326</v>
+        <v>0.06340208428372511</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.01941914367307082</v>
+        <v>-0.1332474129364948</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2329983055328453</v>
       </c>
       <c r="E99" t="n">
-        <v>1.463915254237531</v>
+        <v>1.210696193735053</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02068545728800932</v>
+        <v>0.09317976509780802</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05225270514142565</v>
+        <v>-0.2186543860622901</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2521260011397882</v>
       </c>
       <c r="E100" t="n">
-        <v>1.336244269024202</v>
+        <v>1.165374840945157</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07295955908681347</v>
+        <v>0.2305878110294075</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08048419502723625</v>
+        <v>-0.2575033456651887</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2672171187425482</v>
       </c>
       <c r="E101" t="n">
-        <v>1.16780728106461</v>
+        <v>1.030872290714465</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07672794320944881</v>
+        <v>0.2077906201379591</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.05629849840133365</v>
+        <v>-0.07426731025614701</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2800100330969389</v>
       </c>
       <c r="E102" t="n">
-        <v>1.047119705870097</v>
+        <v>1.003286142084836</v>
       </c>
       <c r="F102" t="n">
-        <v>0.08179577013299291</v>
+        <v>0.1816323985412388</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1081302056285925</v>
+        <v>-0.2115687726771101</v>
       </c>
     </row>
   </sheetData>
